--- a/config_11.24/fish_3d_yutu_random_3.xlsx
+++ b/config_11.24/fish_3d_yutu_random_3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="10" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="limit" sheetId="12" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="create_weight6" sheetId="14" r:id="rId13"/>
     <sheet name="interval" sheetId="15" r:id="rId14"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -86,29 +86,13 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>巨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>create_weight4</t>
   </si>
   <si>
-    <t>大</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>create_weight3</t>
   </si>
   <si>
-    <t>中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>create_weight2</t>
-  </si>
-  <si>
-    <t>小</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>create_pro|三个档次的出生率</t>
@@ -246,97 +230,113 @@
     <t>20,60,5</t>
   </si>
   <si>
+    <t>dead_force_create_index|死亡强制创建标志索引</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18,19,20,21,22,23,24,25,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,</t>
+  </si>
+  <si>
+    <t>1,</t>
+  </si>
+  <si>
+    <t>max_create_num|最大的创建次数（默认为9999）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>28,29,30,31,32,33,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>99,100,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>55,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>35,42,43,44,45,47,47,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>68,69,70,71,72,73,74,82,83,84,85,86,87,88,67,81,75,76,77,78,79,80,89,90,91,92,93,94,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>34,36,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>37,38,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>26,27,64,65,66</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7,8,9,10,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>10,10,5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>dead_force_create_index|死亡强制创建标志索引</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>18,19,20,21,22,23,24,25,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,</t>
-  </si>
-  <si>
-    <t>1,</t>
-  </si>
-  <si>
-    <t>max_create_num|最大的创建次数（默认为9999）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>28,29,30,31,32,33,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>99,100,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>55,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>35,42,43,44,45,47,47,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>68,69,70,71,72,73,74,82,83,84,85,86,87,88,67,81,75,76,77,78,79,80,89,90,91,92,93,94,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>34,36,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>37,38,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>40,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>110,111,112,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>113,114,115,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>116,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>107,108,109,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>26,27,64,65,66</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,3,4,5,6,7,8,9,10,</t>
+    <t>巨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>117,118,119,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>120,121,122,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>123,124,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>124,125,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -409,7 +409,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -420,6 +420,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF8DB4E2"/>
         <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -454,7 +460,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -484,6 +490,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="3" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -782,25 +800,25 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -849,7 +867,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -898,7 +916,7 @@
         <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -955,7 +973,7 @@
         <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -1003,7 +1021,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -1041,7 +1059,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
@@ -1055,25 +1073,25 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" t="s">
         <v>40</v>
       </c>
-      <c r="B1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" t="s">
-        <v>44</v>
-      </c>
       <c r="F1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1" s="11" t="s">
         <v>56</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -1081,7 +1099,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C2" s="11">
         <v>180</v>
@@ -1090,7 +1108,7 @@
         <v>220</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -1098,7 +1116,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C3" s="11">
         <v>180</v>
@@ -1107,7 +1125,7 @@
         <v>220</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -1115,7 +1133,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C4" s="11">
         <v>200</v>
@@ -1124,7 +1142,7 @@
         <v>250</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -1132,7 +1150,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C5" s="11">
         <v>300</v>
@@ -1141,7 +1159,7 @@
         <v>500</v>
       </c>
       <c r="E5" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -1149,7 +1167,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C6" s="11">
         <v>400</v>
@@ -1158,7 +1176,7 @@
         <v>600</v>
       </c>
       <c r="E6" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -1166,7 +1184,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="C7" s="11">
         <v>20</v>
@@ -1175,7 +1193,7 @@
         <v>30</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F7" s="10"/>
       <c r="H7" s="10"/>
@@ -1185,7 +1203,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="C8" s="11">
         <v>280</v>
@@ -1194,7 +1212,7 @@
         <v>300</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -1202,7 +1220,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C9" s="11">
         <v>40</v>
@@ -1211,7 +1229,7 @@
         <v>80</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -1219,7 +1237,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C10" s="11">
         <v>50</v>
@@ -1228,7 +1246,7 @@
         <v>100</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F10" s="10"/>
       <c r="H10" s="10"/>
@@ -1238,7 +1256,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C11">
         <v>1500</v>
@@ -1247,7 +1265,7 @@
         <v>1800</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="G11" s="11">
         <v>1</v>
@@ -1258,7 +1276,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C12">
         <v>3000</v>
@@ -1267,7 +1285,7 @@
         <v>3300</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="G12" s="11">
         <v>1</v>
@@ -1278,7 +1296,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C13" s="11">
         <v>4500</v>
@@ -1287,7 +1305,7 @@
         <v>4800</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -1295,7 +1313,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C14" s="11">
         <v>500</v>
@@ -1304,7 +1322,7 @@
         <v>700</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1318,8 +1336,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1336,28 +1354,28 @@
   <sheetData>
     <row r="1" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="5" t="s">
-        <v>39</v>
-      </c>
       <c r="G1" s="5" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -1365,7 +1383,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C2" s="7">
         <v>15</v>
@@ -1389,7 +1407,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C3" s="6">
         <v>16</v>
@@ -1413,7 +1431,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C4" s="6">
         <v>17</v>
@@ -1439,7 +1457,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C5">
         <v>21</v>
@@ -1463,7 +1481,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C6">
         <v>22</v>
@@ -1486,7 +1504,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C7">
         <v>23</v>
@@ -1509,7 +1527,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C8">
         <v>24</v>
@@ -1528,95 +1546,101 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="6">
+      <c r="A9" s="13">
         <v>8</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9" s="6">
-        <v>56</v>
-      </c>
-      <c r="D9" s="6">
-        <v>2</v>
-      </c>
-      <c r="E9" s="6">
-        <v>1</v>
-      </c>
-      <c r="G9" s="8">
-        <v>1601335800</v>
-      </c>
-      <c r="H9" s="8">
-        <v>1601913599</v>
+      <c r="B9" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="13">
+        <v>65</v>
+      </c>
+      <c r="D9" s="13">
+        <v>2</v>
+      </c>
+      <c r="E9" s="13">
+        <v>1</v>
+      </c>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14">
+        <v>1606176000</v>
+      </c>
+      <c r="H9" s="14">
+        <v>1606751999</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="6">
+      <c r="A10" s="13">
         <v>9</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" s="6">
-        <v>57</v>
-      </c>
-      <c r="D10" s="6">
-        <v>2</v>
-      </c>
-      <c r="E10" s="6">
-        <v>1</v>
-      </c>
-      <c r="G10" s="8">
-        <v>1601335800</v>
-      </c>
-      <c r="H10" s="8">
-        <v>1601913599</v>
+      <c r="B10" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="13">
+        <v>66</v>
+      </c>
+      <c r="D10" s="13">
+        <v>2</v>
+      </c>
+      <c r="E10" s="13">
+        <v>1</v>
+      </c>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14">
+        <v>1606176000</v>
+      </c>
+      <c r="H10" s="14">
+        <v>1606751999</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="6">
+      <c r="A11" s="13">
         <v>10</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C11" s="6">
-        <v>58</v>
-      </c>
-      <c r="D11" s="6">
-        <v>2</v>
-      </c>
-      <c r="E11" s="6">
-        <v>1</v>
-      </c>
-      <c r="G11" s="8">
-        <v>1601335800</v>
-      </c>
-      <c r="H11" s="8">
-        <v>1601913599</v>
+      <c r="B11" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="13">
+        <v>67</v>
+      </c>
+      <c r="D11" s="13">
+        <v>2</v>
+      </c>
+      <c r="E11" s="13">
+        <v>1</v>
+      </c>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14">
+        <v>1606176000</v>
+      </c>
+      <c r="H11" s="14">
+        <v>1606751999</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="6">
+      <c r="A12" s="13">
         <v>11</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" s="6">
-        <v>59</v>
-      </c>
-      <c r="D12" s="6">
-        <v>2</v>
-      </c>
-      <c r="E12" s="6">
+      <c r="B12" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="13">
+        <v>68</v>
+      </c>
+      <c r="D12" s="13">
+        <v>2</v>
+      </c>
+      <c r="E12" s="13">
         <v>5</v>
       </c>
-      <c r="G12" s="8">
-        <v>1601335800</v>
-      </c>
-      <c r="H12" s="8">
-        <v>1601913599</v>
+      <c r="F12" s="14">
+        <v>50</v>
+      </c>
+      <c r="G12" s="14">
+        <v>1606176000</v>
+      </c>
+      <c r="H12" s="14">
+        <v>1606751999</v>
       </c>
     </row>
   </sheetData>
@@ -1815,7 +1839,7 @@
   <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="F20" sqref="F20:F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1829,19 +1853,19 @@
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -1849,84 +1873,84 @@
         <v>1</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="15">
+        <v>2</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="12" t="s">
+      <c r="D3" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="15">
+        <v>3</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="15">
+        <v>4</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="15">
+        <v>5</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="12" t="s">
+      <c r="D6" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="15" t="s">
         <v>74</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -2279,7 +2303,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -2344,7 +2368,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">

--- a/config_11.24/fish_3d_yutu_random_3.xlsx
+++ b/config_11.24/fish_3d_yutu_random_3.xlsx
@@ -1337,7 +1337,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1633,9 +1633,7 @@
       <c r="E12" s="13">
         <v>5</v>
       </c>
-      <c r="F12" s="14">
-        <v>50</v>
-      </c>
+      <c r="F12" s="14"/>
       <c r="G12" s="14">
         <v>1606176000</v>
       </c>
